--- a/temp/pages/all-profiles.xlsx
+++ b/temp/pages/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T00:15:25+00:00</t>
+    <t>2025-11-28T01:24:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
